--- a/pred_ohlcv/54_21/2020-01-11 WOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 WOM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-147135.4713586752</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-147639.4062365993</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-160174.9973365992</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-146997.8149365993</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-148022.8935365993</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-148022.8935365993</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-445530.1927604232</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-925339.0615561267</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-925339.0615561267</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-924570.0191561267</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-919668.3161561267</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-918946.0482561267</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-918946.0482561267</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-921422.2182561267</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-922683.7016561268</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-918570.9648561268</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-913109.5728501877</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-913109.5728501877</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-913109.5728501877</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-913109.5728501877</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-913109.5728501877</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-907007.1851501877</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-912415.4741501877</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-909588.5290501877</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-907894.4303501877</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-902814.6958501877</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-902734.9812501877</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-902734.9812501877</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-908029.4009679803</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-910491.0119679803</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-912156.8972679803</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-912156.8972679803</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-912156.8972679803</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-912156.8972679803</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-912156.8972679803</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-912156.8972679803</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-912146.8972679803</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-919840.1288679803</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-919840.1288679803</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-934606.3393679804</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-1148695.745968659</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-1152739.133668659</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-1147271.41586866</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-1218662.301168659</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-1227515.242968659</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-1227515.242968659</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-1219640.01906866</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-1216200.60126866</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-1249205.204629317</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-1225256.862099651</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-1230989.557796783</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-1273037.010796783</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-1329748.770052541</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-1333028.595452541</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-1330540.690146596</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-1323414.873946596</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-1339058.825646596</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-1341483.723146596</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-1426000.864246596</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-11 WOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 WOM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-147135.4713586752</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-146820.6441586752</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-147545.8169586752</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-147688.7564586753</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-147639.4062365993</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-160174.9973365992</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-146997.8149365993</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-146997.8149365993</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-147043.0480365993</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-148022.8935365993</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-148022.8935365993</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-445530.1927604232</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-924570.0191561267</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-919668.3161561267</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-918946.0482561267</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-922683.7016561268</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-918570.9648561268</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-913109.5728501877</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-913109.5728501877</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-908029.4009679803</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-910491.0119679803</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-912156.8972679803</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-912156.8972679803</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-912156.8972679803</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-912156.8972679803</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-919840.1288679803</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-919840.1288679803</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-934606.3393679804</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-1148695.745968659</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-1156341.758868659</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-1152739.133668659</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-1160089.407268659</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-1218587.880968659</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-1227515.242968659</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-1227515.242968659</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-1219640.01906866</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-1216200.60126866</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-1249205.204629317</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-1225256.862099651</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-1212091.834299651</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-1230989.557796783</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-1273037.010796783</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-1329748.770052541</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-1333028.595452541</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-1330540.690146596</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-1323414.873946596</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-1339058.825646596</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-1341483.723146596</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-1426000.864246596</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
